--- a/src/Excels/OP.xlsx
+++ b/src/Excels/OP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>REPUBLIQUE ALGERIENNE DEMOCRATIQUE ET POPULAIRE</t>
   </si>
@@ -40,23 +40,6 @@
   </si>
   <si>
     <t>ENTREPRISE DE DROIT ALGERIEN</t>
-  </si>
-  <si>
-    <r>
-      <t>N°</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001/2022</t>
-    </r>
   </si>
   <si>
     <t>CONCERNANT LA REALISATION DU PROJET</t>
@@ -252,6 +235,12 @@
   <si>
     <t>Fait à  TAMANRASSET         LE                  /          /2023</t>
   </si>
+  <si>
+    <t>001/2022</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
 </sst>
 </file>
 
@@ -594,10 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,6 +610,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -768,16 +762,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>235640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185944</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305214</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156127</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -795,7 +789,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6489010" y="165653"/>
+          <a:off x="185944" y="298175"/>
           <a:ext cx="723900" cy="588065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1104,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,373 +1113,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34">
+        <v>495635</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33">
-        <v>495635</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="41" t="s">
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="G30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="30" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:7" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <f>C19</f>
         <v>495635</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="57" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="33">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="34">
         <f>C19</f>
         <v>495635</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="57" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="56" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="56" t="s">
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-    </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="56" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="56" t="s">
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
